--- a/Covid_19_Dataset_and_References/References/84.xlsx
+++ b/Covid_19_Dataset_and_References/References/84.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
   <si>
     <t>Doi</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>[Annane%Djillali%coreGivesNoEmail%1, Aubron%C\u00e9cile%coreGivesNoEmail%1, Badi\u00e9%Julio%coreGivesNoEmail%1, Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%1, Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%1, Coffre%Carine%coreGivesNoEmail%1, Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%1, Ehrmann%Stephan%coreGivesNoEmail%1, Fran\u00e7ois%Bruno%coreGivesNoEmail%1, Giraudeau%Bruno%coreGivesNoEmail%1, Guillon%Antoine%coreGivesNoEmail%1, Heming%Nicholas%coreGivesNoEmail%1, Jouan%Youenn%coreGivesNoEmail%1, Le%Gouge Am\u00e9lie%coreGivesNoEmail%1, Leclerc%Marie%coreGivesNoEmail%1, Lengell\u00e9%C\u00e9line%coreGivesNoEmail%1, Meziani%Ferhat%coreGivesNoEmail%1, Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%1, Ricard%Jean-Damien%coreGivesNoEmail%1, Tavernier%Elsa%coreGivesNoEmail%1, Voiriot%Guillaume%coreGivesNoEmail%1, Zohar%Sarah%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0,   Maria Eduarda Leão%Farias%NULL%1,   Fernando Fonseca Almeida%Val%NULL%1,   Vanderson Souza%Sampaio%NULL%1,   Marcia Almeida Araújo%Alexandre%NULL%1,   Gisely Cardoso%Melo%NULL%1,   Izabella Picinin%Safe%NULL%1,   Mayla Gabriela Silva%Borba%NULL%1,   Rebeca Linhares%Abreu-Netto%NULL%1,   Alex Bezerra Silva%Maciel%NULL%1,   João Ricardo Silva%Neto%NULL%1,   Lucas Barbosa%Oliveira%NULL%1,   Erick Frota Gomes%Figueiredo%NULL%1,   Kelry Mazurega Oliveira%Dinelly%NULL%1,   Maria Gabriela de Almeida%Rodrigues%NULL%1,   Marcelo%Brito%NULL%1,   Maria Paula Gomes%Mourão%NULL%1,   Guilherme Augusto%Pivoto João%NULL%1,   Ludhmila Abrahão%Hajjar%NULL%1,   Quique%Bassat%NULL%1,   Gustavo Adolfo Sierra%Romero%NULL%1,   Felipe Gomes%Naveca%NULL%1,   Heline Lira%Vasconcelos%NULL%1,   Michel de Araújo%Tavares%NULL%1,   José Diego%Brito-Sousa%NULL%1,   Fabio Trindade Maranhão%Costa%NULL%1,   Maurício Lacerda%Nogueira%NULL%1,   Djane%Baía-da-Silva%NULL%1,   Mariana Simão%Xavier%NULL%1,   Wuelton Marcelo%Monteiro%NULL%1,   Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,   NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%0,  Alvaro%Avezum%coreGivesNoEmail%0,  Andre%N. Costa%coreGivesNoEmail%0,  Bruno%M. Tomazini%coreGivesNoEmail%0,  Caio%C. F. Fernandes%coreGivesNoEmail%0,  Cassia%Righy%coreGivesNoEmail%0,  Cristina%P. Amendola%coreGivesNoEmail%0,  Daniel%N. Forte%coreGivesNoEmail%0,  Daniela%H. M. Freitas%coreGivesNoEmail%0,  Douglas%Costa Morais%coreGivesNoEmail%0,  Eduardo%L. V. Costa%coreGivesNoEmail%0,  Fernando%G. Zampieri%coreGivesNoEmail%0,  Flavia%R. Bueno%coreGivesNoEmail%0,  Fl\u00e1via%R. Machado%coreGivesNoEmail%0,  Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%0,  Franca%P. Baldassare%coreGivesNoEmail%0,  Gedealvares%F. S. Junior%coreGivesNoEmail%0,  Guilherme%B. Olivato%coreGivesNoEmail%0,  Israel%S. Maia%coreGivesNoEmail%0,  Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%0,  Livia%M. G. Melro%coreGivesNoEmail%0,  Lucas%P. Damiani%coreGivesNoEmail%0,  Luciano%C. P. Azevedo%coreGivesNoEmail%0,  Maria%Vitoria A. O. Silva%coreGivesNoEmail%0,  Michele%O. Honorato%coreGivesNoEmail%0,  Otavio%Berwanger%coreGivesNoEmail%0,  Regis%G. Rosa%coreGivesNoEmail%0,  Renato%D. Lopes%coreGivesNoEmail%0,  Ricardo%A. B. Moura%coreGivesNoEmail%0,  Roberta%M. L. Roepke%coreGivesNoEmail%0,  Stevin%Zung%coreGivesNoEmail%0,  Thiago%Lisboa%coreGivesNoEmail%0,  Viviane%C. Veiga%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%0,  Aubron%C\u00e9cile%coreGivesNoEmail%0,  Badi\u00e9%Julio%coreGivesNoEmail%0,  Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%0,  Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%0,  Coffre%Carine%coreGivesNoEmail%0,  Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%0,  Ehrmann%Stephan%coreGivesNoEmail%0,  Fran\u00e7ois%Bruno%coreGivesNoEmail%0,  Giraudeau%Bruno%coreGivesNoEmail%0,  Guillon%Antoine%coreGivesNoEmail%0,  Heming%Nicholas%coreGivesNoEmail%0,  Jouan%Youenn%coreGivesNoEmail%0,  Le%Gouge Am\u00e9lie%coreGivesNoEmail%0,  Leclerc%Marie%coreGivesNoEmail%0,  Lengell\u00e9%C\u00e9line%coreGivesNoEmail%0,  Meziani%Ferhat%coreGivesNoEmail%0,  Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%0,  Ricard%Jean-Damien%coreGivesNoEmail%0,  Tavernier%Elsa%coreGivesNoEmail%0,  Voiriot%Guillaume%coreGivesNoEmail%0,  Zohar%Sarah%coreGivesNoEmail%0]</t>
   </si>
 </sst>
 </file>
@@ -514,6 +532,12 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -529,7 +553,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -539,6 +563,12 @@
       </c>
       <c r="H2" t="s">
         <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -566,6 +596,12 @@
       <c r="H3" t="s">
         <v>23</v>
       </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
@@ -581,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -591,6 +627,12 @@
       </c>
       <c r="H4" t="s">
         <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -606,9 +648,7 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -617,6 +657,12 @@
       </c>
       <c r="H5" t="s">
         <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -633,7 +679,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -643,6 +689,12 @@
       </c>
       <c r="H6" t="s">
         <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/84.xlsx
+++ b/Covid_19_Dataset_and_References/References/84.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="50">
   <si>
     <t>Doi</t>
   </si>
@@ -213,6 +213,24 @@
   </si>
   <si>
     <t>[Annane%Djillali%coreGivesNoEmail%0,  Aubron%C\u00e9cile%coreGivesNoEmail%0,  Badi\u00e9%Julio%coreGivesNoEmail%0,  Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%0,  Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%0,  Coffre%Carine%coreGivesNoEmail%0,  Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%0,  Ehrmann%Stephan%coreGivesNoEmail%0,  Fran\u00e7ois%Bruno%coreGivesNoEmail%0,  Giraudeau%Bruno%coreGivesNoEmail%0,  Guillon%Antoine%coreGivesNoEmail%0,  Heming%Nicholas%coreGivesNoEmail%0,  Jouan%Youenn%coreGivesNoEmail%0,  Le%Gouge Am\u00e9lie%coreGivesNoEmail%0,  Leclerc%Marie%coreGivesNoEmail%0,  Lengell\u00e9%C\u00e9line%coreGivesNoEmail%0,  Meziani%Ferhat%coreGivesNoEmail%0,  Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%0,  Ricard%Jean-Damien%coreGivesNoEmail%0,  Tavernier%Elsa%coreGivesNoEmail%0,  Voiriot%Guillaume%coreGivesNoEmail%0,  Zohar%Sarah%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0,    Maria Eduarda Leão%Farias%NULL%1,    Fernando Fonseca Almeida%Val%NULL%1,    Vanderson Souza%Sampaio%NULL%1,    Marcia Almeida Araújo%Alexandre%NULL%1,    Gisely Cardoso%Melo%NULL%1,    Izabella Picinin%Safe%NULL%1,    Mayla Gabriela Silva%Borba%NULL%1,    Rebeca Linhares%Abreu-Netto%NULL%1,    Alex Bezerra Silva%Maciel%NULL%1,    João Ricardo Silva%Neto%NULL%1,    Lucas Barbosa%Oliveira%NULL%1,    Erick Frota Gomes%Figueiredo%NULL%1,    Kelry Mazurega Oliveira%Dinelly%NULL%1,    Maria Gabriela de Almeida%Rodrigues%NULL%1,    Marcelo%Brito%NULL%1,    Maria Paula Gomes%Mourão%NULL%1,    Guilherme Augusto%Pivoto João%NULL%1,    Ludhmila Abrahão%Hajjar%NULL%1,    Quique%Bassat%NULL%1,    Gustavo Adolfo Sierra%Romero%NULL%1,    Felipe Gomes%Naveca%NULL%1,    Heline Lira%Vasconcelos%NULL%1,    Michel de Araújo%Tavares%NULL%1,    José Diego%Brito-Sousa%NULL%1,    Fabio Trindade Maranhão%Costa%NULL%1,    Maurício Lacerda%Nogueira%NULL%1,    Djane%Baía-da-Silva%NULL%1,    Mariana Simão%Xavier%NULL%1,    Wuelton Marcelo%Monteiro%NULL%1,    Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,    NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%0,   Alvaro%Avezum%coreGivesNoEmail%0,   Andre%N. Costa%coreGivesNoEmail%0,   Bruno%M. Tomazini%coreGivesNoEmail%0,   Caio%C. F. Fernandes%coreGivesNoEmail%0,   Cassia%Righy%coreGivesNoEmail%0,   Cristina%P. Amendola%coreGivesNoEmail%0,   Daniel%N. Forte%coreGivesNoEmail%0,   Daniela%H. M. Freitas%coreGivesNoEmail%0,   Douglas%Costa Morais%coreGivesNoEmail%0,   Eduardo%L. V. Costa%coreGivesNoEmail%0,   Fernando%G. Zampieri%coreGivesNoEmail%0,   Flavia%R. Bueno%coreGivesNoEmail%0,   Fl\u00e1via%R. Machado%coreGivesNoEmail%0,   Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%0,   Franca%P. Baldassare%coreGivesNoEmail%0,   Gedealvares%F. S. Junior%coreGivesNoEmail%0,   Guilherme%B. Olivato%coreGivesNoEmail%0,   Israel%S. Maia%coreGivesNoEmail%0,   Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%0,   Livia%M. G. Melro%coreGivesNoEmail%0,   Lucas%P. Damiani%coreGivesNoEmail%0,   Luciano%C. P. Azevedo%coreGivesNoEmail%0,   Maria%Vitoria A. O. Silva%coreGivesNoEmail%0,   Michele%O. Honorato%coreGivesNoEmail%0,   Otavio%Berwanger%coreGivesNoEmail%0,   Regis%G. Rosa%coreGivesNoEmail%0,   Renato%D. Lopes%coreGivesNoEmail%0,   Ricardo%A. B. Moura%coreGivesNoEmail%0,   Roberta%M. L. Roepke%coreGivesNoEmail%0,   Stevin%Zung%coreGivesNoEmail%0,   Thiago%Lisboa%coreGivesNoEmail%0,   Viviane%C. Veiga%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%0,   Aubron%C\u00e9cile%coreGivesNoEmail%0,   Badi\u00e9%Julio%coreGivesNoEmail%0,   Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%0,   Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%0,   Coffre%Carine%coreGivesNoEmail%0,   Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%0,   Ehrmann%Stephan%coreGivesNoEmail%0,   Fran\u00e7ois%Bruno%coreGivesNoEmail%0,   Giraudeau%Bruno%coreGivesNoEmail%0,   Guillon%Antoine%coreGivesNoEmail%0,   Heming%Nicholas%coreGivesNoEmail%0,   Jouan%Youenn%coreGivesNoEmail%0,   Le%Gouge Am\u00e9lie%coreGivesNoEmail%0,   Leclerc%Marie%coreGivesNoEmail%0,   Lengell\u00e9%C\u00e9line%coreGivesNoEmail%0,   Meziani%Ferhat%coreGivesNoEmail%0,   Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%0,   Ricard%Jean-Damien%coreGivesNoEmail%0,   Tavernier%Elsa%coreGivesNoEmail%0,   Voiriot%Guillaume%coreGivesNoEmail%0,   Zohar%Sarah%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0,     Maria Eduarda Leão%Farias%NULL%1,     Fernando Fonseca Almeida%Val%NULL%1,     Vanderson Souza%Sampaio%NULL%1,     Marcia Almeida Araújo%Alexandre%NULL%1,     Gisely Cardoso%Melo%NULL%1,     Izabella Picinin%Safe%NULL%1,     Mayla Gabriela Silva%Borba%NULL%1,     Rebeca Linhares%Abreu-Netto%NULL%1,     Alex Bezerra Silva%Maciel%NULL%1,     João Ricardo Silva%Neto%NULL%1,     Lucas Barbosa%Oliveira%NULL%1,     Erick Frota Gomes%Figueiredo%NULL%1,     Kelry Mazurega Oliveira%Dinelly%NULL%1,     Maria Gabriela de Almeida%Rodrigues%NULL%1,     Marcelo%Brito%NULL%1,     Maria Paula Gomes%Mourão%NULL%1,     Guilherme Augusto%Pivoto João%NULL%1,     Ludhmila Abrahão%Hajjar%NULL%1,     Quique%Bassat%NULL%1,     Gustavo Adolfo Sierra%Romero%NULL%1,     Felipe Gomes%Naveca%NULL%1,     Heline Lira%Vasconcelos%NULL%1,     Michel de Araújo%Tavares%NULL%1,     José Diego%Brito-Sousa%NULL%1,     Fabio Trindade Maranhão%Costa%NULL%1,     Maurício Lacerda%Nogueira%NULL%1,     Djane%Baía-da-Silva%NULL%1,     Mariana Simão%Xavier%NULL%1,     Wuelton Marcelo%Monteiro%NULL%1,     Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,     NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%0,    Alvaro%Avezum%coreGivesNoEmail%0,    Andre%N. Costa%coreGivesNoEmail%0,    Bruno%M. Tomazini%coreGivesNoEmail%0,    Caio%C. F. Fernandes%coreGivesNoEmail%0,    Cassia%Righy%coreGivesNoEmail%0,    Cristina%P. Amendola%coreGivesNoEmail%0,    Daniel%N. Forte%coreGivesNoEmail%0,    Daniela%H. M. Freitas%coreGivesNoEmail%0,    Douglas%Costa Morais%coreGivesNoEmail%0,    Eduardo%L. V. Costa%coreGivesNoEmail%0,    Fernando%G. Zampieri%coreGivesNoEmail%0,    Flavia%R. Bueno%coreGivesNoEmail%0,    Fl\u00e1via%R. Machado%coreGivesNoEmail%0,    Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%0,    Franca%P. Baldassare%coreGivesNoEmail%0,    Gedealvares%F. S. Junior%coreGivesNoEmail%0,    Guilherme%B. Olivato%coreGivesNoEmail%0,    Israel%S. Maia%coreGivesNoEmail%0,    Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%0,    Livia%M. G. Melro%coreGivesNoEmail%0,    Lucas%P. Damiani%coreGivesNoEmail%0,    Luciano%C. P. Azevedo%coreGivesNoEmail%0,    Maria%Vitoria A. O. Silva%coreGivesNoEmail%0,    Michele%O. Honorato%coreGivesNoEmail%0,    Otavio%Berwanger%coreGivesNoEmail%0,    Regis%G. Rosa%coreGivesNoEmail%0,    Renato%D. Lopes%coreGivesNoEmail%0,    Ricardo%A. B. Moura%coreGivesNoEmail%0,    Roberta%M. L. Roepke%coreGivesNoEmail%0,    Stevin%Zung%coreGivesNoEmail%0,    Thiago%Lisboa%coreGivesNoEmail%0,    Viviane%C. Veiga%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%0,    Aubron%C\u00e9cile%coreGivesNoEmail%0,    Badi\u00e9%Julio%coreGivesNoEmail%0,    Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%0,    Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%0,    Coffre%Carine%coreGivesNoEmail%0,    Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%0,    Ehrmann%Stephan%coreGivesNoEmail%0,    Fran\u00e7ois%Bruno%coreGivesNoEmail%0,    Giraudeau%Bruno%coreGivesNoEmail%0,    Guillon%Antoine%coreGivesNoEmail%0,    Heming%Nicholas%coreGivesNoEmail%0,    Jouan%Youenn%coreGivesNoEmail%0,    Le%Gouge Am\u00e9lie%coreGivesNoEmail%0,    Leclerc%Marie%coreGivesNoEmail%0,    Lengell\u00e9%C\u00e9line%coreGivesNoEmail%0,    Meziani%Ferhat%coreGivesNoEmail%0,    Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%0,    Ricard%Jean-Damien%coreGivesNoEmail%0,    Tavernier%Elsa%coreGivesNoEmail%0,    Voiriot%Guillaume%coreGivesNoEmail%0,    Zohar%Sarah%coreGivesNoEmail%0]</t>
   </si>
 </sst>
 </file>
@@ -553,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -617,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -648,7 +666,9 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -679,7 +699,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
